--- a/KeywordExcel/Keywords1.xlsx
+++ b/KeywordExcel/Keywords1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>Test Step</t>
   </si>
@@ -88,6 +88,24 @@
   </si>
   <si>
     <t>action /keyword</t>
+  </si>
+  <si>
+    <t>Verify login is valid</t>
+  </si>
+  <si>
+    <t>assertWithUrl</t>
+  </si>
+  <si>
+    <t>Verify forgot password link isclicked</t>
+  </si>
+  <si>
+    <t>assertWithPageTitle</t>
+  </si>
+  <si>
+    <t>Scripting Logic</t>
+  </si>
+  <si>
+    <t>http://billing.scriptinglogic.net/index.php/dashboard1</t>
   </si>
 </sst>
 </file>
@@ -472,18 +490,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -573,71 +591,99 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -646,9 +692,10 @@
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D4" r:id="rId2"/>
     <hyperlink ref="D5" r:id="rId3" display="admin@123"/>
-    <hyperlink ref="D9" r:id="rId4"/>
+    <hyperlink ref="D10" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
--- a/KeywordExcel/Keywords1.xlsx
+++ b/KeywordExcel/Keywords1.xlsx
@@ -96,16 +96,16 @@
     <t>assertWithUrl</t>
   </si>
   <si>
-    <t>Verify forgot password link isclicked</t>
-  </si>
-  <si>
     <t>assertWithPageTitle</t>
   </si>
   <si>
     <t>Scripting Logic</t>
   </si>
   <si>
-    <t>http://billing.scriptinglogic.net/index.php/dashboard1</t>
+    <t>Verify forgot password link is clicked</t>
+  </si>
+  <si>
+    <t>http://billing.scriptinglogic.net/index.php/dashboard</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -661,16 +661,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/KeywordExcel/Keywords1.xlsx
+++ b/KeywordExcel/Keywords1.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\repositories\KeyWordDrivenFramework\KeywordExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB321AD-BC36-409B-84E9-3BCEE34F23A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="login" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -111,8 +117,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +184,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -224,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,9 +270,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,6 +322,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -465,46 +515,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +569,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -533,7 +583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -547,7 +597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -561,7 +611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -575,7 +625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -589,7 +639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -603,7 +653,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -617,7 +667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -631,7 +681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -645,7 +695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -659,7 +709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -673,7 +723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -689,13 +739,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3" display="admin@123"/>
-    <hyperlink ref="D10" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" display="admin@123" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>